--- a/Purchase Testing/target/classes/testData.xlsx
+++ b/Purchase Testing/target/classes/testData.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView activeTab="2" windowHeight="12650" windowWidth="22260" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="SearchPositiveValue" r:id="rId1" sheetId="3"/>
-    <sheet name="SearchNegativeValue" r:id="rId2" sheetId="1"/>
-    <sheet name="SetUserInfoValue" r:id="rId3" sheetId="2"/>
+    <sheet name="SearchNegativeValue" sheetId="1" r:id="rId1"/>
+    <sheet name="SearchPositiveValue" sheetId="3" r:id="rId2"/>
+    <sheet name="BuyAsNewUser" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="75">
   <si>
     <t>TestCase</t>
   </si>
@@ -84,17 +84,196 @@
   </si>
   <si>
     <t>No results were found for your search "test"</t>
+  </si>
+  <si>
+    <t>Search product by keyword</t>
+  </si>
+  <si>
+    <t>Click procced to checkout</t>
+  </si>
+  <si>
+    <t>Add one more quantity- press button blus</t>
+  </si>
+  <si>
+    <t>Verify Unit price</t>
+  </si>
+  <si>
+    <t>Verify total price</t>
+  </si>
+  <si>
+    <t>press proceed button</t>
+  </si>
+  <si>
+    <t>set existing user into new User email</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>abc@xyz.com</t>
+  </si>
+  <si>
+    <t>Verify Error about existing account</t>
+  </si>
+  <si>
+    <t>set new email</t>
+  </si>
+  <si>
+    <t>press "Create account"</t>
+  </si>
+  <si>
+    <t>Verify Create account form</t>
+  </si>
+  <si>
+    <t>set Mr radio button</t>
+  </si>
+  <si>
+    <t>set Last name</t>
+  </si>
+  <si>
+    <t>set First name</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Fetuchi</t>
+  </si>
+  <si>
+    <t>set password</t>
+  </si>
+  <si>
+    <t>select day of birth</t>
+  </si>
+  <si>
+    <t>select month of birth</t>
+  </si>
+  <si>
+    <t>select year of birth</t>
+  </si>
+  <si>
+    <t>set company</t>
+  </si>
+  <si>
+    <t>set adress</t>
+  </si>
+  <si>
+    <t>str Angel Vidal</t>
+  </si>
+  <si>
+    <t>set Country</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>select State</t>
+  </si>
+  <si>
+    <t>set postal code</t>
+  </si>
+  <si>
+    <t>verify that email exist</t>
+  </si>
+  <si>
+    <t>set additional info</t>
+  </si>
+  <si>
+    <t>I want to recieve as soon as possible</t>
+  </si>
+  <si>
+    <t>set mobile phone</t>
+  </si>
+  <si>
+    <t>Press Register</t>
+  </si>
+  <si>
+    <t>Verify Delivery address</t>
+  </si>
+  <si>
+    <t>Verify Billing address</t>
+  </si>
+  <si>
+    <t>check I agree with terms check box</t>
+  </si>
+  <si>
+    <t>Select pay by bank wire</t>
+  </si>
+  <si>
+    <t>Add product to cart from Qiuck View</t>
+  </si>
+  <si>
+    <t>Verify message that dress succeeded added to cart</t>
+  </si>
+  <si>
+    <t>$28.98</t>
+  </si>
+  <si>
+    <t>Betrina</t>
+  </si>
+  <si>
+    <t>str Pochainicka
+London, Alaska 02807
+United States</t>
+  </si>
+  <si>
+    <t>Press confirm</t>
+  </si>
+  <si>
+    <t>Adam Fetuchi</t>
+  </si>
+  <si>
+    <t>Verify price from details</t>
+  </si>
+  <si>
+    <t>Verify name after confirm detailes</t>
+  </si>
+  <si>
+    <t>press return to orders</t>
+  </si>
+  <si>
+    <t>check order status</t>
+  </si>
+  <si>
+    <t>press Home</t>
+  </si>
+  <si>
+    <t>On backorder</t>
+  </si>
+  <si>
+    <t>$30.98</t>
+  </si>
+  <si>
+    <t>$59.96</t>
+  </si>
+  <si>
+    <t>mochat2@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF008000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -123,23 +302,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -156,10 +346,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -194,7 +384,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -229,7 +419,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -323,21 +513,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -354,7 +544,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -406,15 +596,133 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="28" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.6328125" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="35" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27.6328125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.453125" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="8.7265625" style="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2"/>
+      <c r="F2"/>
+    </row>
+    <row r="3" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3"/>
+    </row>
+    <row r="4" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4"/>
+      <c r="F4"/>
+    </row>
+    <row r="5" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5"/>
+    </row>
+    <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -422,10 +730,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="21.453125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.6328125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="28.1796875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="31.36328125" collapsed="true"/>
+    <col min="2" max="2" width="21.453125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.6328125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="28.1796875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="31.36328125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -460,27 +768,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="1" width="8.7265625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="28.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="25.6328125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="35.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="27.6328125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="13.453125" collapsed="true"/>
-    <col min="7" max="8" style="1" width="8.7265625" collapsed="true"/>
+    <col min="2" max="2" width="21.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.36328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7265625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.90625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7265625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -488,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>13</v>
@@ -500,103 +808,436 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+    <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row ht="29" r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+      <c r="B11" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="1">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row ht="29" r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row ht="43.5" r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row ht="29" r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="3">
+        <v>20807</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="1">
+        <v>612345670</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <hyperlinks>
+    <hyperlink ref="C12" r:id="rId1"/>
+    <hyperlink ref="D18" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>